--- a/rider/monthly/2017_4.xlsx
+++ b/rider/monthly/2017_4.xlsx
@@ -333,94 +333,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>81</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>212</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>217</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>242</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>230</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>193</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>250</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>182</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>175</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>261</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>303</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>140</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>83</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>291</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>270</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>195</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>238</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>300</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>101</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>76</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>256</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>264</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>251</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>218</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>91</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -547,94 +547,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>113.57</c:v>
+                  <c:v>113.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.67</c:v>
+                  <c:v>94.23999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>219.67</c:v>
+                  <c:v>225.14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>212.17</c:v>
+                  <c:v>211.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>220.96</c:v>
+                  <c:v>213.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>235.32</c:v>
+                  <c:v>239.32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>236.61</c:v>
+                  <c:v>242.83</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>112.88</c:v>
+                  <c:v>113.04</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>93.55</c:v>
+                  <c:v>93.09</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>221.05</c:v>
+                  <c:v>225.59</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>210.92</c:v>
+                  <c:v>210.29</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>219.04</c:v>
+                  <c:v>212.96</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>236.43</c:v>
+                  <c:v>241.22</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>239.38</c:v>
+                  <c:v>242.92</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>113.96</c:v>
+                  <c:v>114.28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>93.09</c:v>
+                  <c:v>92.73999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>224.09</c:v>
+                  <c:v>228.3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>213.28</c:v>
+                  <c:v>215.96</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>218.08</c:v>
+                  <c:v>212.04</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>236.5</c:v>
+                  <c:v>239.79</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>241.8</c:v>
+                  <c:v>242.28</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>113.46</c:v>
+                  <c:v>114.15</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>92.38</c:v>
+                  <c:v>92.45999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>225.42</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>215.65</c:v>
+                  <c:v>218.23</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>219.85</c:v>
+                  <c:v>211.81</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>237.08</c:v>
+                  <c:v>236.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>240.88</c:v>
+                  <c:v>241.77</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>112.48</c:v>
+                  <c:v>113.15</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>92.31999999999999</c:v>
+                  <c:v>91.95999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1293,10 +1293,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D2">
-        <v>113.57</v>
+        <v>113.83</v>
       </c>
       <c r="E2">
         <v>112.88</v>
@@ -1310,10 +1310,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D3">
-        <v>94.67</v>
+        <v>94.23999999999999</v>
       </c>
       <c r="E3">
         <v>113.04</v>
@@ -1327,10 +1327,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D4">
-        <v>219.67</v>
+        <v>225.14</v>
       </c>
       <c r="E4">
         <v>113.2</v>
@@ -1344,10 +1344,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D5">
-        <v>212.17</v>
+        <v>211.35</v>
       </c>
       <c r="E5">
         <v>113.36</v>
@@ -1361,10 +1361,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D6">
-        <v>220.96</v>
+        <v>213.22</v>
       </c>
       <c r="E6">
         <v>113.52</v>
@@ -1378,10 +1378,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D7">
-        <v>235.32</v>
+        <v>239.32</v>
       </c>
       <c r="E7">
         <v>113.69</v>
@@ -1395,10 +1395,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="D8">
-        <v>236.61</v>
+        <v>242.83</v>
       </c>
       <c r="E8">
         <v>113.85</v>
@@ -1412,10 +1412,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D9">
-        <v>112.88</v>
+        <v>113.04</v>
       </c>
       <c r="E9">
         <v>114.01</v>
@@ -1429,10 +1429,10 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10">
-        <v>93.55</v>
+        <v>93.09</v>
       </c>
       <c r="E10">
         <v>114.17</v>
@@ -1446,10 +1446,10 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D11">
-        <v>221.05</v>
+        <v>225.59</v>
       </c>
       <c r="E11">
         <v>114.33</v>
@@ -1463,10 +1463,10 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D12">
-        <v>210.92</v>
+        <v>210.29</v>
       </c>
       <c r="E12">
         <v>114.49</v>
@@ -1480,10 +1480,10 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="D13">
-        <v>219.04</v>
+        <v>212.96</v>
       </c>
       <c r="E13">
         <v>114.65</v>
@@ -1497,10 +1497,10 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="D14">
-        <v>236.43</v>
+        <v>241.22</v>
       </c>
       <c r="E14">
         <v>114.82</v>
@@ -1514,10 +1514,10 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="D15">
-        <v>239.38</v>
+        <v>242.92</v>
       </c>
       <c r="E15">
         <v>114.98</v>
@@ -1531,10 +1531,10 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D16">
-        <v>113.96</v>
+        <v>114.28</v>
       </c>
       <c r="E16">
         <v>115.14</v>
@@ -1548,10 +1548,10 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D17">
-        <v>93.09</v>
+        <v>92.73999999999999</v>
       </c>
       <c r="E17">
         <v>115.3</v>
@@ -1565,10 +1565,10 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D18">
-        <v>224.09</v>
+        <v>228.3</v>
       </c>
       <c r="E18">
         <v>115.46</v>
@@ -1582,10 +1582,10 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="D19">
-        <v>213.28</v>
+        <v>215.96</v>
       </c>
       <c r="E19">
         <v>115.62</v>
@@ -1599,10 +1599,10 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D20">
-        <v>218.08</v>
+        <v>212.04</v>
       </c>
       <c r="E20">
         <v>115.78</v>
@@ -1616,10 +1616,10 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="D21">
-        <v>236.5</v>
+        <v>239.79</v>
       </c>
       <c r="E21">
         <v>115.95</v>
@@ -1633,10 +1633,10 @@
         <v>32</v>
       </c>
       <c r="C22">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="D22">
-        <v>241.8</v>
+        <v>242.28</v>
       </c>
       <c r="E22">
         <v>116.11</v>
@@ -1650,10 +1650,10 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D23">
-        <v>113.46</v>
+        <v>114.15</v>
       </c>
       <c r="E23">
         <v>116.27</v>
@@ -1667,10 +1667,10 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D24">
-        <v>92.38</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="E24">
         <v>116.43</v>
@@ -1684,10 +1684,10 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>256</v>
+        <v>197</v>
       </c>
       <c r="D25">
-        <v>225.42</v>
+        <v>227</v>
       </c>
       <c r="E25">
         <v>116.59</v>
@@ -1704,7 +1704,7 @@
         <v>275</v>
       </c>
       <c r="D26">
-        <v>215.65</v>
+        <v>218.23</v>
       </c>
       <c r="E26">
         <v>116.75</v>
@@ -1718,10 +1718,10 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="D27">
-        <v>219.85</v>
+        <v>211.81</v>
       </c>
       <c r="E27">
         <v>116.91</v>
@@ -1735,10 +1735,10 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="D28">
-        <v>237.08</v>
+        <v>236.6</v>
       </c>
       <c r="E28">
         <v>117.08</v>
@@ -1752,10 +1752,10 @@
         <v>39</v>
       </c>
       <c r="C29">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D29">
-        <v>240.88</v>
+        <v>241.77</v>
       </c>
       <c r="E29">
         <v>117.24</v>
@@ -1772,7 +1772,7 @@
         <v>87</v>
       </c>
       <c r="D30">
-        <v>112.48</v>
+        <v>113.15</v>
       </c>
       <c r="E30">
         <v>117.4</v>
@@ -1786,10 +1786,10 @@
         <v>41</v>
       </c>
       <c r="C31">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D31">
-        <v>92.31999999999999</v>
+        <v>91.95999999999999</v>
       </c>
       <c r="E31">
         <v>117.56</v>
